--- a/biology/Zoologie/Francolin_de_Schlegel/Francolin_de_Schlegel.xlsx
+++ b/biology/Zoologie/Francolin_de_Schlegel/Francolin_de_Schlegel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peliperdix schlegelii
 Le Francolin de Schlegel (Peliperdix schlegelii) est une espèce d'oiseaux appartenant à la famille des Phasianidae.
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit au nord du Cameroun (massif de l’Adamaqua), au sud du Tchad, au nord de la République Centrafricaine et au sud-ouest du Soudan (Bahr el Ghazal).
 </t>
@@ -544,7 +558,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>synonyme
 Francolinus schlegelii
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le francolin de Schlegel affectionne la savane herbeuse et arborée, dominée par l’arbre Isoberinia doka (Urban et al. 1986), et visite occasionnellement les abords des cultures (Madge &amp; McGowan 2002).
 </t>
@@ -608,7 +626,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le francolin de Schlegel est timide et méfiant, évitant les habitations. Son vol est lent, silencieux et de courte durée. Il se tient généralement en couples ou par petits groupes, mais s’associe occasionnellement à d’autres espèces de francolins. Les individus passent la nuit ensemble sur le sol en dessous des arbres, se pressant tête-bêche les uns contre les autres (Urban et al. 1986, Hennache &amp; Ottaviani 2011).
 </t>
@@ -639,7 +659,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit essentiellement de feuilles, notamment d’Isoberinia doka, de grains et d’insectes (Urban et al. 1986).
 </t>
@@ -670,7 +692,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cri d’avertissement ressemble à celui des francolins coqui et à gorge blanche mais en plus rapide et plus grave : ter, ink, terra. Il existe aussi un doux korr-korr-korr émis particulièrement à la tombée de la nuit (Urban et al. 1986).
 </t>
@@ -701,7 +725,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid est une petite cavité creusée sur le sol et tapissée d’herbes et de feuilles mortes. Il contient de deux à cinq œufs de couleur crème. Un cas de ponte de dix œufs est probablement le fait de deux femelles. Au Soudan, la nidification a lieu entre septembre et octobre (Madge &amp; McGowan 2002).
 </t>
@@ -732,7 +758,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est très mal connue. Elle est rare et locale mais, d’après BirdLife (2010) la population serait stable bien qu’aucun recensement n’ait jamais été fait.
 </t>
